--- a/src/main/resources/tp/1140.xlsx
+++ b/src/main/resources/tp/1140.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\image\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProject\BP3\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C5DC5-CA2E-4EDD-B0D8-E6B019A796F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA8388-1F50-495D-90FF-ECF782174D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>身份证号（id_card）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名(name)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.response}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list t.id_card</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -386,29 +370,16 @@
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/tp/1140.xlsx
+++ b/src/main/resources/tp/1140.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProject\BP3\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA8388-1F50-495D-90FF-ECF782174D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C67545-40DA-4F8D-8D60-B67A0C9E8646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>身份证号（id_card）</t>
+    <t>姓名(name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名(name)</t>
+    <t>身份证号(id_card)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -372,10 +372,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
